--- a/data/trans_dic/P25A$preocupacion-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,13</t>
+          <t>3,58; 8,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,92</t>
+          <t>3,92; 9,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,14</t>
+          <t>4,97; 12,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,04</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,31</t>
+          <t>1,35; 11,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 26,11</t>
+          <t>5,15; 27,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,33</t>
+          <t>3,35; 8,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,56</t>
+          <t>3,76; 8,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,81</t>
+          <t>5,82; 13,37</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,16</t>
+          <t>5,52; 13,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,15</t>
+          <t>6,09; 12,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,04</t>
+          <t>9,42; 17,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,51</t>
+          <t>6,05; 16,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,25</t>
+          <t>4,74; 12,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,64</t>
+          <t>3,28; 10,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,21</t>
+          <t>6,78; 12,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,22</t>
+          <t>6,42; 11,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,04</t>
+          <t>7,46; 13,07</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 17,81</t>
+          <t>5,39; 18,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,41</t>
+          <t>4,3; 16,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 28,8</t>
+          <t>9,98; 28,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 18,84</t>
+          <t>2,24; 18,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 20,49</t>
+          <t>5,21; 19,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 18,34</t>
+          <t>5,79; 17,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,55</t>
+          <t>5,03; 15,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 15,87</t>
+          <t>6,61; 15,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 19,84</t>
+          <t>9,23; 20,14</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,12</t>
+          <t>5,79; 9,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,73</t>
+          <t>9,23; 14,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,7</t>
+          <t>5,27; 12,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,74</t>
+          <t>5,53; 11,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,79</t>
+          <t>5,71; 11,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,75</t>
+          <t>6,07; 9,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,65</t>
+          <t>6,36; 9,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,61</t>
+          <t>8,76; 12,78</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la preocupación por sus efectos nocivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17838</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23097</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16918</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18984</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26158</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21870</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10858; 27007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14573; 34108</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10430; 27115</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5029</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>931; 8082</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1938; 10160</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11774; 29324</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16589; 37251</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14392; 33090</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21126</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31154</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37982</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15753</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19374</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36880</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50528</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50470</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13077; 31567</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21169; 42574</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28440; 52390</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9152; 24788</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11377; 30598</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6604; 20410</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26312; 49242</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37744; 66656</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37518; 65745</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8612</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8999</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15681</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12281</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17926</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25702</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4551; 15279</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4135; 16165</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8944; 25325</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1150; 9587</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4033; 15208</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5501; 16930</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6827; 21026</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11474; 27482</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17050; 37201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47577</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70580</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20568</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>94611</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98042</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36167; 62083</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48967; 81135</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55487; 89362</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13204; 31723</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21379; 43687</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19049; 39737</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>53133; 86402</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>76504; 117461</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81931; 119536</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>